--- a/output/simulation_results.xlsx
+++ b/output/simulation_results.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -503,22 +503,22 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>8.295294943820227</v>
       </c>
       <c r="G2" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H2" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -539,22 +539,22 @@
         <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>16.59058988764045</v>
       </c>
       <c r="G3" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H3" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J3" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -575,22 +575,22 @@
         <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>24.88588483146068</v>
       </c>
       <c r="G4" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H4" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J4" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -601,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -611,22 +611,22 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>33.18117977528091</v>
       </c>
       <c r="G5" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H5" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J5" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -647,22 +647,22 @@
         <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>41.47647471910113</v>
       </c>
       <c r="G6" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H6" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J6" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -673,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -683,22 +683,22 @@
         <v>60</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>49.77176966292136</v>
       </c>
       <c r="G7" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H7" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J7" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -709,7 +709,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -719,22 +719,22 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>58.06706460674159</v>
       </c>
       <c r="G8" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H8" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J8" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +745,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -755,22 +755,22 @@
         <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>66.36235955056182</v>
       </c>
       <c r="G9" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H9" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I9" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J9" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -781,7 +781,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -791,22 +791,22 @@
         <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>74.65765449438204</v>
       </c>
       <c r="G10" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H10" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J10" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -817,7 +817,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GO T60 P0.3</t>
+          <t>GO T60 P1.5</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -827,22 +827,22 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>82.95294943820227</v>
       </c>
       <c r="G11" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H11" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J11" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -853,7 +853,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -863,22 +863,22 @@
         <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>11.66666666666667</v>
+        <v>14.74719101123596</v>
       </c>
       <c r="G12" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H12" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J12" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -889,7 +889,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -899,22 +899,22 @@
         <v>60</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>23.33333333333333</v>
+        <v>29.49438202247191</v>
       </c>
       <c r="G13" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H13" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I13" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J13" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -935,22 +935,22 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>35</v>
+        <v>44.24157303370787</v>
       </c>
       <c r="G14" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H14" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -961,7 +961,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -971,22 +971,22 @@
         <v>60</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>46.66666666666666</v>
+        <v>58.98876404494382</v>
       </c>
       <c r="G15" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H15" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J15" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -997,7 +997,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1007,22 +1007,22 @@
         <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>58.33333333333334</v>
+        <v>73.73595505617976</v>
       </c>
       <c r="G16" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H16" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I16" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J16" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1043,22 +1043,22 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>70</v>
+        <v>88.48314606741573</v>
       </c>
       <c r="G17" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H17" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I17" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J17" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1079,22 +1079,22 @@
         <v>60</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>81.66666666666667</v>
+        <v>103.2303370786517</v>
       </c>
       <c r="G18" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H18" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I18" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J18" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1115,22 +1115,22 @@
         <v>60</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>93.33333333333333</v>
+        <v>117.9775280898876</v>
       </c>
       <c r="G19" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H19" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I19" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J19" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1151,22 +1151,22 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>105</v>
+        <v>132.7247191011236</v>
       </c>
       <c r="G20" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H20" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J20" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GO T60 P0.7</t>
+          <t>GO T60 P2.0</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1187,22 +1187,22 @@
         <v>60</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>116.6666666666667</v>
+        <v>147.4719101123595</v>
       </c>
       <c r="G21" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H21" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I21" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J21" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1223,22 +1223,22 @@
         <v>60</v>
       </c>
       <c r="E22" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>23.04248595505618</v>
       </c>
       <c r="G22" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H22" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I22" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1259,22 +1259,22 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>46.08497191011236</v>
       </c>
       <c r="G23" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H23" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I23" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J23" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1295,22 +1295,22 @@
         <v>60</v>
       </c>
       <c r="E24" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>69.12745786516854</v>
       </c>
       <c r="G24" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H24" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I24" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1331,22 +1331,22 @@
         <v>60</v>
       </c>
       <c r="E25" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="n">
+        <v>92.16994382022472</v>
+      </c>
+      <c r="G25" t="n">
+        <v>207</v>
+      </c>
+      <c r="H25" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" t="n">
+        <v>65</v>
+      </c>
+      <c r="J25" t="n">
         <v>80</v>
-      </c>
-      <c r="G25" t="n">
-        <v>207.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1367,22 +1367,22 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>115.2124297752809</v>
       </c>
       <c r="G26" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H26" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I26" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1403,22 +1403,22 @@
         <v>60</v>
       </c>
       <c r="E27" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F27" t="n">
-        <v>120</v>
+        <v>138.2549157303371</v>
       </c>
       <c r="G27" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H27" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1439,22 +1439,22 @@
         <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F28" t="n">
-        <v>140</v>
+        <v>161.2974016853933</v>
       </c>
       <c r="G28" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H28" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I28" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1475,22 +1475,22 @@
         <v>60</v>
       </c>
       <c r="E29" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F29" t="n">
-        <v>160</v>
+        <v>184.3398876404494</v>
       </c>
       <c r="G29" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H29" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I29" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1511,22 +1511,22 @@
         <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F30" t="n">
-        <v>180</v>
+        <v>207.3823735955056</v>
       </c>
       <c r="G30" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H30" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I30" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GO T60 P1.2</t>
+          <t>GO T60 P2.5</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1547,22 +1547,22 @@
         <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>230.4248595505618</v>
       </c>
       <c r="G31" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H31" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I31" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1583,22 +1583,22 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>4.977176966292136</v>
       </c>
       <c r="G32" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H32" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I32" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J32" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1619,22 +1619,22 @@
         <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>9.954353932584272</v>
       </c>
       <c r="G33" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H33" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I33" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J33" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1655,22 +1655,22 @@
         <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>14.93153089887641</v>
       </c>
       <c r="G34" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H34" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I34" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J34" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1691,22 +1691,22 @@
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F35" t="n">
-        <v>12</v>
+        <v>19.90870786516854</v>
       </c>
       <c r="G35" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H35" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I35" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J35" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1727,22 +1727,22 @@
         <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>24.88588483146068</v>
       </c>
       <c r="G36" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H36" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I36" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J36" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1763,22 +1763,22 @@
         <v>100</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>29.86306179775281</v>
       </c>
       <c r="G37" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H37" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I37" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J37" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1799,22 +1799,22 @@
         <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>34.84023876404495</v>
       </c>
       <c r="G38" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H38" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I38" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J38" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1835,22 +1835,22 @@
         <v>100</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>39.81741573033709</v>
       </c>
       <c r="G39" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H39" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I39" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J39" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1871,22 +1871,22 @@
         <v>100</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F40" t="n">
-        <v>27</v>
+        <v>44.79459269662922</v>
       </c>
       <c r="G40" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H40" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I40" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J40" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GO T100 P0.3</t>
+          <t>GO T100 P1.5</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1907,22 +1907,22 @@
         <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F41" t="n">
-        <v>30</v>
+        <v>49.77176966292136</v>
       </c>
       <c r="G41" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H41" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I41" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J41" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1943,22 +1943,22 @@
         <v>100</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>8.848314606741573</v>
       </c>
       <c r="G42" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H42" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I42" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J42" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1979,22 +1979,22 @@
         <v>100</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>14</v>
+        <v>17.69662921348315</v>
       </c>
       <c r="G43" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H43" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I43" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J43" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2015,22 +2015,22 @@
         <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>21</v>
+        <v>26.54494382022472</v>
       </c>
       <c r="G44" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H44" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I44" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J44" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2051,22 +2051,22 @@
         <v>100</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>28</v>
+        <v>35.39325842696629</v>
       </c>
       <c r="G45" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H45" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I45" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J45" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2087,22 +2087,22 @@
         <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>35</v>
+        <v>44.24157303370787</v>
       </c>
       <c r="G46" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H46" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I46" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J46" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2123,22 +2123,22 @@
         <v>100</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>42</v>
+        <v>53.08988764044943</v>
       </c>
       <c r="G47" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H47" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I47" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J47" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2159,22 +2159,22 @@
         <v>100</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>49</v>
+        <v>61.93820224719101</v>
       </c>
       <c r="G48" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H48" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I48" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J48" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2195,22 +2195,22 @@
         <v>100</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>56</v>
+        <v>70.78651685393258</v>
       </c>
       <c r="G49" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H49" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I49" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J49" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2231,22 +2231,22 @@
         <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>63</v>
+        <v>79.63483146067415</v>
       </c>
       <c r="G50" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H50" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I50" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J50" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GO T100 P0.7</t>
+          <t>GO T100 P2.0</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2267,22 +2267,22 @@
         <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>70</v>
+        <v>88.48314606741573</v>
       </c>
       <c r="G51" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H51" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I51" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J51" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2303,22 +2303,22 @@
         <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F52" t="n">
-        <v>12</v>
+        <v>13.82549157303371</v>
       </c>
       <c r="G52" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H52" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I52" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J52" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2339,22 +2339,22 @@
         <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F53" t="n">
-        <v>24</v>
+        <v>27.65098314606742</v>
       </c>
       <c r="G53" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H53" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I53" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J53" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2375,22 +2375,22 @@
         <v>100</v>
       </c>
       <c r="E54" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F54" t="n">
-        <v>36</v>
+        <v>41.47647471910113</v>
       </c>
       <c r="G54" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H54" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I54" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J54" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2411,22 +2411,22 @@
         <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F55" t="n">
-        <v>48</v>
+        <v>55.30196629213484</v>
       </c>
       <c r="G55" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H55" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I55" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J55" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2447,22 +2447,22 @@
         <v>100</v>
       </c>
       <c r="E56" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F56" t="n">
-        <v>60</v>
+        <v>69.12745786516855</v>
       </c>
       <c r="G56" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H56" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I56" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J56" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2483,22 +2483,22 @@
         <v>100</v>
       </c>
       <c r="E57" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F57" t="n">
-        <v>72</v>
+        <v>82.95294943820225</v>
       </c>
       <c r="G57" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H57" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I57" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J57" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2519,22 +2519,22 @@
         <v>100</v>
       </c>
       <c r="E58" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F58" t="n">
-        <v>84</v>
+        <v>96.77844101123596</v>
       </c>
       <c r="G58" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H58" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I58" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J58" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2555,22 +2555,22 @@
         <v>100</v>
       </c>
       <c r="E59" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F59" t="n">
-        <v>96</v>
+        <v>110.6039325842697</v>
       </c>
       <c r="G59" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H59" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I59" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J59" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2591,22 +2591,22 @@
         <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F60" t="n">
-        <v>108</v>
+        <v>124.4294241573034</v>
       </c>
       <c r="G60" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H60" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I60" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J60" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GO T100 P1.2</t>
+          <t>GO T100 P2.5</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2627,22 +2627,22 @@
         <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F61" t="n">
-        <v>120</v>
+        <v>138.2549157303371</v>
       </c>
       <c r="G61" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H61" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I61" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J61" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2663,22 +2663,22 @@
         <v>150</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>3.318117977528091</v>
       </c>
       <c r="G62" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H62" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I62" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J62" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2699,22 +2699,22 @@
         <v>150</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>6.636235955056183</v>
       </c>
       <c r="G63" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H63" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I63" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J63" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2735,22 +2735,22 @@
         <v>150</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>9.95435393258427</v>
       </c>
       <c r="G64" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H64" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I64" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J64" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2771,22 +2771,22 @@
         <v>150</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>13.27247191011237</v>
       </c>
       <c r="G65" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H65" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I65" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J65" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2807,22 +2807,22 @@
         <v>150</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>16.59058988764045</v>
       </c>
       <c r="G66" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H66" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I66" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J66" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2843,22 +2843,22 @@
         <v>150</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F67" t="n">
-        <v>12</v>
+        <v>19.90870786516854</v>
       </c>
       <c r="G67" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H67" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I67" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J67" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2879,22 +2879,22 @@
         <v>150</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F68" t="n">
-        <v>14</v>
+        <v>23.22682584269664</v>
       </c>
       <c r="G68" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H68" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I68" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J68" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2915,22 +2915,22 @@
         <v>150</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F69" t="n">
-        <v>16</v>
+        <v>26.54494382022473</v>
       </c>
       <c r="G69" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H69" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I69" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J69" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2951,22 +2951,22 @@
         <v>150</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F70" t="n">
-        <v>18</v>
+        <v>29.86306179775281</v>
       </c>
       <c r="G70" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H70" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I70" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J70" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GO T150 P0.3</t>
+          <t>GO T150 P1.5</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2987,22 +2987,22 @@
         <v>150</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>33.1811797752809</v>
       </c>
       <c r="G71" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H71" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I71" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J71" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3023,22 +3023,22 @@
         <v>150</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>4.666666666666667</v>
+        <v>5.898876404494382</v>
       </c>
       <c r="G72" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H72" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I72" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J72" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3059,22 +3059,22 @@
         <v>150</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>9.333333333333334</v>
+        <v>11.79775280898876</v>
       </c>
       <c r="G73" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H73" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I73" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J73" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3095,22 +3095,22 @@
         <v>150</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>14</v>
+        <v>17.69662921348314</v>
       </c>
       <c r="G74" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H74" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I74" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J74" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3131,22 +3131,22 @@
         <v>150</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>18.66666666666667</v>
+        <v>23.59550561797753</v>
       </c>
       <c r="G75" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H75" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I75" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J75" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3167,22 +3167,22 @@
         <v>150</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>23.33333333333333</v>
+        <v>29.49438202247191</v>
       </c>
       <c r="G76" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H76" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I76" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J76" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3203,22 +3203,22 @@
         <v>150</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>28</v>
+        <v>35.39325842696628</v>
       </c>
       <c r="G77" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H77" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I77" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J77" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3239,22 +3239,22 @@
         <v>150</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>32.66666666666666</v>
+        <v>41.29213483146067</v>
       </c>
       <c r="G78" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H78" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I78" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J78" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3275,22 +3275,22 @@
         <v>150</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>37.33333333333334</v>
+        <v>47.19101123595505</v>
       </c>
       <c r="G79" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H79" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I79" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J79" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3311,22 +3311,22 @@
         <v>150</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>42</v>
+        <v>53.08988764044944</v>
       </c>
       <c r="G80" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H80" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I80" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J80" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GO T150 P0.7</t>
+          <t>GO T150 P2.0</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3347,22 +3347,22 @@
         <v>150</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>46.66666666666666</v>
+        <v>58.98876404494382</v>
       </c>
       <c r="G81" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H81" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I81" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J81" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3383,22 +3383,22 @@
         <v>150</v>
       </c>
       <c r="E82" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>9.216994382022472</v>
       </c>
       <c r="G82" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H82" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I82" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J82" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3419,22 +3419,22 @@
         <v>150</v>
       </c>
       <c r="E83" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F83" t="n">
-        <v>16</v>
+        <v>18.43398876404494</v>
       </c>
       <c r="G83" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H83" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I83" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J83" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3455,22 +3455,22 @@
         <v>150</v>
       </c>
       <c r="E84" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F84" t="n">
-        <v>24</v>
+        <v>27.65098314606742</v>
       </c>
       <c r="G84" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H84" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I84" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J84" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3491,22 +3491,22 @@
         <v>150</v>
       </c>
       <c r="E85" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F85" t="n">
-        <v>32</v>
+        <v>36.86797752808989</v>
       </c>
       <c r="G85" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H85" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I85" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J85" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3527,22 +3527,22 @@
         <v>150</v>
       </c>
       <c r="E86" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F86" t="n">
-        <v>40</v>
+        <v>46.08497191011237</v>
       </c>
       <c r="G86" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H86" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I86" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J86" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3563,22 +3563,22 @@
         <v>150</v>
       </c>
       <c r="E87" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F87" t="n">
-        <v>48</v>
+        <v>55.30196629213484</v>
       </c>
       <c r="G87" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H87" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I87" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J87" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3599,22 +3599,22 @@
         <v>150</v>
       </c>
       <c r="E88" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F88" t="n">
-        <v>56</v>
+        <v>64.51896067415731</v>
       </c>
       <c r="G88" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H88" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I88" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J88" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3635,22 +3635,22 @@
         <v>150</v>
       </c>
       <c r="E89" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F89" t="n">
-        <v>64</v>
+        <v>73.73595505617978</v>
       </c>
       <c r="G89" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H89" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I89" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J89" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3671,22 +3671,22 @@
         <v>150</v>
       </c>
       <c r="E90" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F90" t="n">
-        <v>72</v>
+        <v>82.95294943820224</v>
       </c>
       <c r="G90" t="n">
-        <v>207.6</v>
+        <v>207</v>
       </c>
       <c r="H90" t="n">
-        <v>84.5</v>
+        <v>30</v>
       </c>
       <c r="I90" t="n">
-        <v>29.5</v>
+        <v>65</v>
       </c>
       <c r="J90" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GO T150 P1.2</t>
+          <t>GO T150 P2.5</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3707,22 +3707,22 @@
         <v>150</v>
       </c>
       <c r="E91" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F91" t="n">
+        <v>92.16994382022473</v>
+      </c>
+      <c r="G91" t="n">
+        <v>207</v>
+      </c>
+      <c r="H91" t="n">
+        <v>30</v>
+      </c>
+      <c r="I91" t="n">
+        <v>65</v>
+      </c>
+      <c r="J91" t="n">
         <v>80</v>
-      </c>
-      <c r="G91" t="n">
-        <v>207.6</v>
-      </c>
-      <c r="H91" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="I91" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="92">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3743,22 +3743,22 @@
         <v>60</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>3.686797752808989</v>
       </c>
       <c r="G92" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H92" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I92" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J92" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3779,22 +3779,22 @@
         <v>60</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>7.373595505617978</v>
       </c>
       <c r="G93" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H93" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I93" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J93" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3815,22 +3815,22 @@
         <v>60</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>11.06039325842697</v>
       </c>
       <c r="G94" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H94" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I94" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J94" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3851,22 +3851,22 @@
         <v>60</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>40</v>
+        <v>14.74719101123596</v>
       </c>
       <c r="G95" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H95" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I95" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J95" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3887,22 +3887,22 @@
         <v>60</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>50</v>
+        <v>18.43398876404494</v>
       </c>
       <c r="G96" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H96" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I96" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J96" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3923,22 +3923,22 @@
         <v>60</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>60</v>
+        <v>22.12078651685393</v>
       </c>
       <c r="G97" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H97" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I97" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J97" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3959,22 +3959,22 @@
         <v>60</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>70</v>
+        <v>25.80758426966292</v>
       </c>
       <c r="G98" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H98" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I98" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J98" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3995,22 +3995,22 @@
         <v>60</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>80</v>
+        <v>29.49438202247191</v>
       </c>
       <c r="G99" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H99" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I99" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J99" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4031,22 +4031,22 @@
         <v>60</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>90</v>
+        <v>33.1811797752809</v>
       </c>
       <c r="G100" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H100" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I100" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J100" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rGO T60 P0.6</t>
+          <t>rGO T60 P1.0</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4067,22 +4067,22 @@
         <v>60</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>36.86797752808988</v>
       </c>
       <c r="G101" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H101" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I101" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J101" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4103,22 +4103,22 @@
         <v>60</v>
       </c>
       <c r="E102" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F102" t="n">
-        <v>14.16666666666667</v>
+        <v>8.295294943820227</v>
       </c>
       <c r="G102" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H102" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I102" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J102" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4139,22 +4139,22 @@
         <v>60</v>
       </c>
       <c r="E103" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F103" t="n">
-        <v>28.33333333333333</v>
+        <v>16.59058988764045</v>
       </c>
       <c r="G103" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H103" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I103" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J103" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4175,22 +4175,22 @@
         <v>60</v>
       </c>
       <c r="E104" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F104" t="n">
-        <v>42.5</v>
+        <v>24.88588483146068</v>
       </c>
       <c r="G104" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H104" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I104" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J104" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4211,22 +4211,22 @@
         <v>60</v>
       </c>
       <c r="E105" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F105" t="n">
-        <v>56.66666666666666</v>
+        <v>33.18117977528091</v>
       </c>
       <c r="G105" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H105" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I105" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J105" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4247,22 +4247,22 @@
         <v>60</v>
       </c>
       <c r="E106" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F106" t="n">
-        <v>70.83333333333333</v>
+        <v>41.47647471910113</v>
       </c>
       <c r="G106" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H106" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I106" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J106" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4283,22 +4283,22 @@
         <v>60</v>
       </c>
       <c r="E107" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F107" t="n">
-        <v>85</v>
+        <v>49.77176966292136</v>
       </c>
       <c r="G107" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H107" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I107" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J107" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4319,22 +4319,22 @@
         <v>60</v>
       </c>
       <c r="E108" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F108" t="n">
-        <v>99.16666666666667</v>
+        <v>58.06706460674159</v>
       </c>
       <c r="G108" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H108" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I108" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J108" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4355,22 +4355,22 @@
         <v>60</v>
       </c>
       <c r="E109" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F109" t="n">
-        <v>113.3333333333333</v>
+        <v>66.36235955056182</v>
       </c>
       <c r="G109" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H109" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I109" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J109" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4391,22 +4391,22 @@
         <v>60</v>
       </c>
       <c r="E110" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F110" t="n">
-        <v>127.5</v>
+        <v>74.65765449438204</v>
       </c>
       <c r="G110" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H110" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I110" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J110" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>rGO T60 P0.85</t>
+          <t>rGO T60 P1.5</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -4427,22 +4427,22 @@
         <v>60</v>
       </c>
       <c r="E111" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F111" t="n">
-        <v>141.6666666666667</v>
+        <v>82.95294943820227</v>
       </c>
       <c r="G111" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H111" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I111" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J111" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4463,22 +4463,22 @@
         <v>60</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>16.66666666666667</v>
+        <v>14.74719101123596</v>
       </c>
       <c r="G112" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H112" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I112" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J112" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4499,22 +4499,22 @@
         <v>60</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>33.33333333333334</v>
+        <v>29.49438202247191</v>
       </c>
       <c r="G113" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H113" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I113" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J113" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -4535,22 +4535,22 @@
         <v>60</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>50</v>
+        <v>44.24157303370787</v>
       </c>
       <c r="G114" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H114" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I114" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J114" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -4571,22 +4571,22 @@
         <v>60</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>66.66666666666667</v>
+        <v>58.98876404494382</v>
       </c>
       <c r="G115" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H115" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I115" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J115" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4607,22 +4607,22 @@
         <v>60</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
-        <v>83.33333333333333</v>
+        <v>73.73595505617976</v>
       </c>
       <c r="G116" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H116" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I116" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J116" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4643,22 +4643,22 @@
         <v>60</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>88.48314606741573</v>
       </c>
       <c r="G117" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H117" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I117" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J117" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4679,22 +4679,22 @@
         <v>60</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>116.6666666666667</v>
+        <v>103.2303370786517</v>
       </c>
       <c r="G118" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H118" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I118" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J118" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4715,22 +4715,22 @@
         <v>60</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
-        <v>133.3333333333333</v>
+        <v>117.9775280898876</v>
       </c>
       <c r="G119" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H119" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I119" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J119" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4751,22 +4751,22 @@
         <v>60</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120" t="n">
-        <v>150</v>
+        <v>132.7247191011236</v>
       </c>
       <c r="G120" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H120" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I120" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J120" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>rGO T60 P1.0</t>
+          <t>rGO T60 P2.0</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4787,22 +4787,22 @@
         <v>60</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>166.6666666666667</v>
+        <v>147.4719101123595</v>
       </c>
       <c r="G121" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H121" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I121" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J121" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122">
@@ -4813,32 +4813,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>0.1</v>
       </c>
       <c r="D122" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>2.765098314606742</v>
       </c>
       <c r="G122" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H122" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I122" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J122" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123">
@@ -4849,32 +4849,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>0.2</v>
       </c>
       <c r="D123" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>12</v>
+        <v>5.530196629213483</v>
       </c>
       <c r="G123" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H123" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I123" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J123" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124">
@@ -4885,32 +4885,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>0.3</v>
       </c>
       <c r="D124" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>18</v>
+        <v>8.295294943820224</v>
       </c>
       <c r="G124" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H124" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I124" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J124" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125">
@@ -4921,32 +4921,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>0.4</v>
       </c>
       <c r="D125" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>24</v>
+        <v>11.06039325842697</v>
       </c>
       <c r="G125" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H125" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I125" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J125" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126">
@@ -4957,32 +4957,32 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>0.5</v>
       </c>
       <c r="D126" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>30</v>
+        <v>13.82549157303371</v>
       </c>
       <c r="G126" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H126" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I126" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J126" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127">
@@ -4993,32 +4993,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>0.6</v>
       </c>
       <c r="D127" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>36</v>
+        <v>16.59058988764045</v>
       </c>
       <c r="G127" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H127" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I127" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J127" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
@@ -5029,32 +5029,32 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>0.7</v>
       </c>
       <c r="D128" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>42</v>
+        <v>19.35568820224719</v>
       </c>
       <c r="G128" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H128" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I128" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J128" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129">
@@ -5065,32 +5065,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>0.8</v>
       </c>
       <c r="D129" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>48</v>
+        <v>22.12078651685393</v>
       </c>
       <c r="G129" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H129" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I129" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J129" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130">
@@ -5101,32 +5101,32 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>0.9</v>
       </c>
       <c r="D130" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>54</v>
+        <v>24.88588483146068</v>
       </c>
       <c r="G130" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H130" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I130" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J130" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131">
@@ -5137,32 +5137,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>rGO T100 P0.6</t>
+          <t>rGO T80 P1.0</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>60</v>
+        <v>27.65098314606742</v>
       </c>
       <c r="G131" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H131" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I131" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J131" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132">
@@ -5173,32 +5173,32 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>0.1</v>
       </c>
       <c r="D132" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E132" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F132" t="n">
-        <v>8.5</v>
+        <v>6.221471207865171</v>
       </c>
       <c r="G132" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H132" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I132" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J132" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133">
@@ -5209,32 +5209,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>0.2</v>
       </c>
       <c r="D133" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E133" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F133" t="n">
-        <v>17</v>
+        <v>12.44294241573034</v>
       </c>
       <c r="G133" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H133" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I133" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J133" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134">
@@ -5245,32 +5245,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>0.3</v>
       </c>
       <c r="D134" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E134" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F134" t="n">
-        <v>25.5</v>
+        <v>18.66441362359551</v>
       </c>
       <c r="G134" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H134" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I134" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J134" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135">
@@ -5281,32 +5281,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>0.4</v>
       </c>
       <c r="D135" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E135" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F135" t="n">
-        <v>34</v>
+        <v>24.88588483146069</v>
       </c>
       <c r="G135" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H135" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I135" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J135" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136">
@@ -5317,32 +5317,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>0.5</v>
       </c>
       <c r="D136" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E136" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F136" t="n">
-        <v>42.5</v>
+        <v>31.10735603932585</v>
       </c>
       <c r="G136" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H136" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I136" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J136" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137">
@@ -5353,32 +5353,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>0.6</v>
       </c>
       <c r="D137" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E137" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F137" t="n">
-        <v>51</v>
+        <v>37.32882724719102</v>
       </c>
       <c r="G137" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H137" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I137" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J137" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138">
@@ -5389,32 +5389,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>0.7</v>
       </c>
       <c r="D138" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E138" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F138" t="n">
-        <v>59.5</v>
+        <v>43.55029845505619</v>
       </c>
       <c r="G138" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H138" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I138" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J138" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139">
@@ -5425,32 +5425,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>0.8</v>
       </c>
       <c r="D139" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E139" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F139" t="n">
-        <v>68</v>
+        <v>49.77176966292137</v>
       </c>
       <c r="G139" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H139" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I139" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J139" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140">
@@ -5461,32 +5461,32 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>0.9</v>
       </c>
       <c r="D140" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E140" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F140" t="n">
-        <v>76.5</v>
+        <v>55.99324087078653</v>
       </c>
       <c r="G140" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H140" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I140" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J140" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141">
@@ -5497,32 +5497,32 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>rGO T100 P0.85</t>
+          <t>rGO T80 P1.5</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E141" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F141" t="n">
-        <v>85</v>
+        <v>62.2147120786517</v>
       </c>
       <c r="G141" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H141" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I141" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J141" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142">
@@ -5533,32 +5533,32 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>0.1</v>
       </c>
       <c r="D142" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>11.06039325842697</v>
       </c>
       <c r="G142" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H142" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I142" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J142" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143">
@@ -5569,32 +5569,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>0.2</v>
       </c>
       <c r="D143" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>22.12078651685393</v>
       </c>
       <c r="G143" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H143" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I143" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J143" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144">
@@ -5605,32 +5605,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>0.3</v>
       </c>
       <c r="D144" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>33.1811797752809</v>
       </c>
       <c r="G144" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H144" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I144" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J144" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145">
@@ -5641,32 +5641,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>0.4</v>
       </c>
       <c r="D145" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>40</v>
+        <v>44.24157303370787</v>
       </c>
       <c r="G145" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H145" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I145" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J145" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146">
@@ -5677,32 +5677,32 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>0.5</v>
       </c>
       <c r="D146" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146" t="n">
-        <v>50</v>
+        <v>55.30196629213484</v>
       </c>
       <c r="G146" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H146" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I146" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J146" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147">
@@ -5713,32 +5713,32 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>0.6</v>
       </c>
       <c r="D147" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>60</v>
+        <v>66.36235955056179</v>
       </c>
       <c r="G147" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H147" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I147" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J147" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148">
@@ -5749,32 +5749,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>0.7</v>
       </c>
       <c r="D148" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
-        <v>70</v>
+        <v>77.42275280898878</v>
       </c>
       <c r="G148" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H148" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I148" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J148" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149">
@@ -5785,32 +5785,32 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>0.8</v>
       </c>
       <c r="D149" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
-        <v>80</v>
+        <v>88.48314606741573</v>
       </c>
       <c r="G149" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H149" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I149" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J149" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150">
@@ -5821,32 +5821,32 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>0.9</v>
       </c>
       <c r="D150" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>90</v>
+        <v>99.5435393258427</v>
       </c>
       <c r="G150" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H150" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I150" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J150" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151">
@@ -5857,32 +5857,32 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>rGO T100 P1.0</t>
+          <t>rGO T80 P2.0</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>100</v>
+        <v>110.6039325842697</v>
       </c>
       <c r="G151" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H151" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I151" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J151" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152">
@@ -5893,32 +5893,32 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>0.1</v>
       </c>
       <c r="D152" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>4</v>
+        <v>2.212078651685393</v>
       </c>
       <c r="G152" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H152" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I152" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J152" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153">
@@ -5929,32 +5929,32 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>0.2</v>
       </c>
       <c r="D153" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>8</v>
+        <v>4.424157303370786</v>
       </c>
       <c r="G153" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H153" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I153" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J153" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154">
@@ -5965,32 +5965,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>0.3</v>
       </c>
       <c r="D154" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>12</v>
+        <v>6.636235955056179</v>
       </c>
       <c r="G154" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H154" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I154" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J154" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155">
@@ -6001,32 +6001,32 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>0.4</v>
       </c>
       <c r="D155" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>16</v>
+        <v>8.848314606741573</v>
       </c>
       <c r="G155" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H155" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I155" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J155" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156">
@@ -6037,32 +6037,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>0.5</v>
       </c>
       <c r="D156" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>11.06039325842697</v>
       </c>
       <c r="G156" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H156" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I156" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J156" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157">
@@ -6073,32 +6073,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>0.6</v>
       </c>
       <c r="D157" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>24</v>
+        <v>13.27247191011236</v>
       </c>
       <c r="G157" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H157" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I157" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J157" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158">
@@ -6109,32 +6109,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>0.7</v>
       </c>
       <c r="D158" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>28</v>
+        <v>15.48455056179775</v>
       </c>
       <c r="G158" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H158" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I158" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J158" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159">
@@ -6145,32 +6145,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>0.8</v>
       </c>
       <c r="D159" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E159" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>32</v>
+        <v>17.69662921348315</v>
       </c>
       <c r="G159" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H159" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I159" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J159" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160">
@@ -6181,32 +6181,32 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>0.9</v>
       </c>
       <c r="D160" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E160" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>36</v>
+        <v>19.90870786516854</v>
       </c>
       <c r="G160" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H160" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I160" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J160" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161">
@@ -6217,32 +6217,32 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>rGO T150 P0.6</t>
+          <t>rGO T100 P1.0</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E161" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>40</v>
+        <v>22.12078651685393</v>
       </c>
       <c r="G161" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H161" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I161" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J161" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162">
@@ -6253,32 +6253,32 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>0.1</v>
       </c>
       <c r="D162" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E162" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F162" t="n">
-        <v>5.666666666666667</v>
+        <v>4.977176966292136</v>
       </c>
       <c r="G162" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H162" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I162" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J162" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="163">
@@ -6289,32 +6289,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>0.2</v>
       </c>
       <c r="D163" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E163" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F163" t="n">
-        <v>11.33333333333333</v>
+        <v>9.954353932584272</v>
       </c>
       <c r="G163" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H163" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I163" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J163" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164">
@@ -6325,32 +6325,32 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>0.3</v>
       </c>
       <c r="D164" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E164" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F164" t="n">
-        <v>17</v>
+        <v>14.93153089887641</v>
       </c>
       <c r="G164" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H164" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I164" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J164" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165">
@@ -6361,32 +6361,32 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>0.4</v>
       </c>
       <c r="D165" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E165" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F165" t="n">
-        <v>22.66666666666667</v>
+        <v>19.90870786516854</v>
       </c>
       <c r="G165" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H165" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I165" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J165" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="166">
@@ -6397,32 +6397,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>0.5</v>
       </c>
       <c r="D166" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E166" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F166" t="n">
-        <v>28.33333333333333</v>
+        <v>24.88588483146068</v>
       </c>
       <c r="G166" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H166" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I166" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J166" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="167">
@@ -6433,32 +6433,32 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>0.6</v>
       </c>
       <c r="D167" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E167" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F167" t="n">
-        <v>34</v>
+        <v>29.86306179775281</v>
       </c>
       <c r="G167" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H167" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I167" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J167" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="168">
@@ -6469,32 +6469,32 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>0.7</v>
       </c>
       <c r="D168" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E168" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F168" t="n">
-        <v>39.66666666666666</v>
+        <v>34.84023876404495</v>
       </c>
       <c r="G168" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H168" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I168" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J168" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="169">
@@ -6505,32 +6505,32 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>0.8</v>
       </c>
       <c r="D169" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E169" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F169" t="n">
-        <v>45.33333333333334</v>
+        <v>39.81741573033709</v>
       </c>
       <c r="G169" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H169" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I169" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J169" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="170">
@@ -6541,32 +6541,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>0.9</v>
       </c>
       <c r="D170" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E170" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F170" t="n">
-        <v>51</v>
+        <v>44.79459269662922</v>
       </c>
       <c r="G170" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H170" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I170" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J170" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171">
@@ -6577,32 +6577,32 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>rGO T150 P0.85</t>
+          <t>rGO T100 P1.5</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E171" t="n">
-        <v>0.85</v>
+        <v>1.5</v>
       </c>
       <c r="F171" t="n">
-        <v>56.66666666666666</v>
+        <v>49.77176966292136</v>
       </c>
       <c r="G171" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H171" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I171" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J171" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172">
@@ -6613,32 +6613,32 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>0.1</v>
       </c>
       <c r="D172" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F172" t="n">
-        <v>6.666666666666667</v>
+        <v>8.848314606741573</v>
       </c>
       <c r="G172" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H172" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I172" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J172" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173">
@@ -6649,32 +6649,32 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>0.2</v>
       </c>
       <c r="D173" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F173" t="n">
-        <v>13.33333333333333</v>
+        <v>17.69662921348315</v>
       </c>
       <c r="G173" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H173" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I173" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J173" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174">
@@ -6685,32 +6685,32 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>0.3</v>
       </c>
       <c r="D174" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
-        <v>20</v>
+        <v>26.54494382022472</v>
       </c>
       <c r="G174" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H174" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I174" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J174" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175">
@@ -6721,32 +6721,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>0.4</v>
       </c>
       <c r="D175" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175" t="n">
-        <v>26.66666666666667</v>
+        <v>35.39325842696629</v>
       </c>
       <c r="G175" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H175" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I175" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J175" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176">
@@ -6757,32 +6757,32 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>0.5</v>
       </c>
       <c r="D176" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176" t="n">
-        <v>33.33333333333334</v>
+        <v>44.24157303370787</v>
       </c>
       <c r="G176" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H176" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I176" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J176" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177">
@@ -6793,32 +6793,32 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>0.6</v>
       </c>
       <c r="D177" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
-        <v>40</v>
+        <v>53.08988764044943</v>
       </c>
       <c r="G177" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H177" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I177" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J177" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178">
@@ -6829,32 +6829,32 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>0.7</v>
       </c>
       <c r="D178" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F178" t="n">
-        <v>46.66666666666666</v>
+        <v>61.93820224719101</v>
       </c>
       <c r="G178" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H178" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I178" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J178" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179">
@@ -6865,32 +6865,32 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>0.8</v>
       </c>
       <c r="D179" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>53.33333333333334</v>
+        <v>70.78651685393258</v>
       </c>
       <c r="G179" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H179" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I179" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J179" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="180">
@@ -6901,32 +6901,32 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>0.9</v>
       </c>
       <c r="D180" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F180" t="n">
-        <v>60</v>
+        <v>79.63483146067415</v>
       </c>
       <c r="G180" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H180" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I180" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J180" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181">
@@ -6937,32 +6937,32 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>rGO T150 P1.0</t>
+          <t>rGO T100 P2.0</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F181" t="n">
-        <v>66.66666666666667</v>
+        <v>88.48314606741573</v>
       </c>
       <c r="G181" t="n">
-        <v>1.84</v>
+        <v>280</v>
       </c>
       <c r="H181" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I181" t="n">
-        <v>73.90000000000001</v>
+        <v>122</v>
       </c>
       <c r="J181" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="182">
@@ -6980,25 +6980,25 @@
         <v>0.1</v>
       </c>
       <c r="D182" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E182" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F182" t="n">
-        <v>9.954545454545455</v>
+        <v>7.527212078651684</v>
       </c>
       <c r="G182" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H182" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I182" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J182" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="183">
@@ -7016,25 +7016,25 @@
         <v>0.2</v>
       </c>
       <c r="D183" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E183" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F183" t="n">
-        <v>19.90909090909091</v>
+        <v>15.05442415730337</v>
       </c>
       <c r="G183" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H183" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I183" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J183" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="184">
@@ -7052,25 +7052,25 @@
         <v>0.3</v>
       </c>
       <c r="D184" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E184" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F184" t="n">
-        <v>29.86363636363636</v>
+        <v>22.58163623595506</v>
       </c>
       <c r="G184" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H184" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I184" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J184" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="185">
@@ -7088,25 +7088,25 @@
         <v>0.4</v>
       </c>
       <c r="D185" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E185" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F185" t="n">
-        <v>39.81818181818182</v>
+        <v>30.10884831460674</v>
       </c>
       <c r="G185" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H185" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I185" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J185" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="186">
@@ -7124,25 +7124,25 @@
         <v>0.5</v>
       </c>
       <c r="D186" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E186" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F186" t="n">
-        <v>49.77272727272727</v>
+        <v>37.63606039325843</v>
       </c>
       <c r="G186" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H186" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I186" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J186" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="187">
@@ -7160,25 +7160,25 @@
         <v>0.6</v>
       </c>
       <c r="D187" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E187" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F187" t="n">
-        <v>59.72727272727273</v>
+        <v>45.16327247191011</v>
       </c>
       <c r="G187" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H187" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I187" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J187" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="188">
@@ -7196,25 +7196,25 @@
         <v>0.7</v>
       </c>
       <c r="D188" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E188" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F188" t="n">
-        <v>69.68181818181817</v>
+        <v>52.6904845505618</v>
       </c>
       <c r="G188" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H188" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I188" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J188" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189">
@@ -7232,25 +7232,25 @@
         <v>0.8</v>
       </c>
       <c r="D189" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E189" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F189" t="n">
-        <v>79.63636363636364</v>
+        <v>60.21769662921347</v>
       </c>
       <c r="G189" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H189" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I189" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J189" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="190">
@@ -7268,25 +7268,25 @@
         <v>0.9</v>
       </c>
       <c r="D190" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E190" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F190" t="n">
-        <v>89.59090909090909</v>
+        <v>67.74490870786516</v>
       </c>
       <c r="G190" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H190" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I190" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J190" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="191">
@@ -7304,25 +7304,25 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E191" t="n">
-        <v>1.095</v>
+        <v>1.75</v>
       </c>
       <c r="F191" t="n">
-        <v>99.54545454545455</v>
+        <v>75.27212078651685</v>
       </c>
       <c r="G191" t="n">
-        <v>104.72</v>
+        <v>243.5</v>
       </c>
       <c r="H191" t="n">
-        <v>117.25</v>
+        <v>37</v>
       </c>
       <c r="I191" t="n">
-        <v>51.7</v>
+        <v>93.5</v>
       </c>
       <c r="J191" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
